--- a/TestCases/Data/CSV/test_demand_IFC.xlsx
+++ b/TestCases/Data/CSV/test_demand_IFC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/erikkko_ntnu_no/Documents/Skole/5 klasse/Master/MasterVS/Master-Thesis-NTNU/TestCases/Data/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{F7EE2311-9446-4ED2-AEBD-3465356E3C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156FD6FD-90E1-4AAB-9983-568BDD94231C}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{F7EE2311-9446-4ED2-AEBD-3465356E3C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD34CD5-A322-400F-B089-75A227C49BD9}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1752" windowWidth="23256" windowHeight="12456" xr2:uid="{41FF37DB-1DF6-4CDC-B4D6-867AC8276D4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t xml:space="preserve"> Guid </t>
   </si>
@@ -68,21 +68,6 @@
     <t>IPE 270</t>
   </si>
   <si>
-    <t>IfcColumn</t>
-  </si>
-  <si>
-    <t>SHS180x10</t>
-  </si>
-  <si>
-    <t>#97575=IfcColumn('33as9O3zjEnAsHHJOULXFR',#20,'SHS (EN 10219-2) Column:SHS180x10:1394712','FRQ{1BF168C9-680E-4679-B3CC-ED990FEE68F0}','SHS180x10',#97592,#97581,'1394712')</t>
-  </si>
-  <si>
-    <t>#55584=IfcColumn('3uH1CJblr8oB3W4rDHE_jK',#20,'Column HEA:HEA 100:1573279',$,'Column HEA:HEA 100',#55583,#55580,'1573279')</t>
-  </si>
-  <si>
-    <t>HEA 100</t>
-  </si>
-  <si>
     <t>Area [m^2]</t>
   </si>
   <si>
@@ -98,9 +83,6 @@
     <t>Steel - S355</t>
   </si>
   <si>
-    <t>Steel - S235</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -117,6 +99,39 @@
   </si>
   <si>
     <t>Moment of Inertia [m^4]</t>
+  </si>
+  <si>
+    <t>#5267=IfcBeam('33as9O3zjEnAsHHJOULXxA',#20,'Beam IPE:IPE 270:1393929',$,'Beam IPE:IPE 270',#5254,#5266,'1393929')</t>
+  </si>
+  <si>
+    <t>#5294=IfcBeam('33as9O3zjEnAsHHJOULXxO',#20,'Beam IPE:IPE 270:1393947',$,'Beam IPE:IPE 270',#5281,#5293,'1393947')</t>
+  </si>
+  <si>
+    <t>#7660=IfcSlab('2I9WHjl$58$uOG2hQYWWMS',#20,'Punktfundament:F4:1408628',$,'Punktfundament:F4',#7650,#7659,'1408628',.BASESLAB.)</t>
+  </si>
+  <si>
+    <t>#7691=IfcSlab('2I9WHjl$58$uOG2hQYWWMU',#20,'Punktfundament:F3:1408630',$,'Punktfundament:F3',#7681,#7690,'1408630',.BASESLAB.)</t>
+  </si>
+  <si>
+    <t>#8453=IfcSlab('2r6pcFq511UeZXcuDB_GrX',#20,'Floor:Lettak-element:1412380',$,'Floor:Lettak-element',#8439,#8452,'1412380',.FLOOR.)</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Timber - C24</t>
+  </si>
+  <si>
+    <t>IfcDoor</t>
+  </si>
+  <si>
+    <t>IfcWindow</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Window</t>
   </si>
 </sst>
 </file>
@@ -524,18 +539,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB89FEE-588B-46FC-8510-9DECBE2A5E16}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -543,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -564,13 +582,13 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -587,10 +605,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
       <c r="F2">
         <v>35</v>
@@ -605,11 +623,11 @@
         <v>11.66</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J3" si="0">H2*I2</f>
+        <f>H2*I2</f>
         <v>3.1482000000000001</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K3" si="1">J2*G2</f>
+        <f>J2*G2</f>
         <v>110.37589200000001</v>
       </c>
       <c r="L2">
@@ -628,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
       </c>
       <c r="F3">
         <v>355</v>
@@ -646,11 +664,11 @@
         <v>0.13</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J11" si="0">H3*I3</f>
         <v>3.5100000000000006E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K3" si="1">J3*G3</f>
         <v>1.2169170000000002</v>
       </c>
       <c r="L3">
@@ -666,43 +684,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="F4">
         <v>355</v>
       </c>
       <c r="G4">
-        <v>0.18</v>
+        <v>34.67</v>
       </c>
       <c r="H4">
-        <v>8.58</v>
+        <v>0.27</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4" si="2">H4*I4</f>
-        <v>1.5444</v>
+        <f t="shared" si="0"/>
+        <v>3.5100000000000006E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4" si="3">J4*G4</f>
-        <v>0.27799199999999996</v>
+        <f t="shared" ref="K4:K11" si="2">J4*G4</f>
+        <v>1.2169170000000002</v>
       </c>
       <c r="L4">
-        <f>(I4*H4^(3))/12</f>
-        <v>9.4744306799999993</v>
+        <f t="shared" ref="L4:L11" si="3">(I4*H4^(3))/12</f>
+        <v>2.1323250000000003E-4</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -710,44 +728,299 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>355</v>
+      </c>
+      <c r="G5">
+        <v>11.27</v>
+      </c>
+      <c r="H5">
+        <v>0.27</v>
+      </c>
+      <c r="I5">
+        <v>0.13</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3.5100000000000006E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0.39557700000000007</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2.1323250000000003E-4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>H6*I6</f>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="F5">
-        <v>235</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>0.16</v>
-      </c>
-      <c r="I5">
-        <v>0.1</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5" si="4">H5*I5</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5" si="5">J5*G5</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="L5">
-        <f>(I5*H5^(3))/12</f>
-        <v>3.4133333333333341E-5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
+      </c>
+      <c r="J8">
+        <f>H8*I8</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>5.6480000000000006</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>2.1333333333333339E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
